--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2059.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2059.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165796449610824</v>
+        <v>0.6658955216407776</v>
       </c>
       <c r="B1">
-        <v>2.790496852415093</v>
+        <v>3.069838285446167</v>
       </c>
       <c r="C1">
-        <v>4.912959816546227</v>
+        <v>4.542080879211426</v>
       </c>
       <c r="D1">
-        <v>2.774344628143856</v>
+        <v>2.374843835830688</v>
       </c>
       <c r="E1">
-        <v>1.206775481398083</v>
+        <v>1.063945770263672</v>
       </c>
     </row>
   </sheetData>
